--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1289.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1289.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8189402580286324</v>
+        <v>1.132418990135193</v>
       </c>
       <c r="B1">
-        <v>1.498112900940139</v>
+        <v>2.286110401153564</v>
       </c>
       <c r="C1">
-        <v>5.127472548495246</v>
+        <v>11.05879497528076</v>
       </c>
       <c r="D1">
-        <v>3.804819357917422</v>
+        <v>2.086678266525269</v>
       </c>
       <c r="E1">
-        <v>1.527413398284366</v>
+        <v>1.278679966926575</v>
       </c>
     </row>
   </sheetData>
